--- a/Content/TableData/Furniture.xlsx
+++ b/Content/TableData/Furniture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\MS\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE43AFDC-BDAB-44B2-91B2-66A46F76D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5A6A6-9505-49CE-AAD3-873BC2EAEC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>1000</v>

--- a/Content/TableData/Furniture.xlsx
+++ b/Content/TableData/Furniture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\MS\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5A6A6-9505-49CE-AAD3-873BC2EAEC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C256A1-549F-4B88-90CA-4AB5DAE13350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,9 @@
   <si>
     <t>int32</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fresh Display 3</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,7 +544,7 @@
     <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +561,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +580,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -618,7 +621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -659,7 +662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -697,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1077,11 +1080,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4010</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1009</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
